--- a/biology/Médecine/Archives_suisses_de_neurologie_et_de_psychiatrie/Archives_suisses_de_neurologie_et_de_psychiatrie.xlsx
+++ b/biology/Médecine/Archives_suisses_de_neurologie_et_de_psychiatrie/Archives_suisses_de_neurologie_et_de_psychiatrie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les Archives suisses de neurologie et de psychiatrie, appelée en allemand Schweizer Archiv für Neurologie und Psychiatrie, est une revue scientifique à comité de lecture spécialisée dans les domaines de neurologie et de psychiatrie.
-Les directeurs de publication sont Andreas J. Steck, Claudio L. Bassetti, Joachim Küchenhoff et Jacques Besson[1].
+Les directeurs de publication sont Andreas J. Steck, Claudio L. Bassetti, Joachim Küchenhoff et Jacques Besson.
 </t>
         </is>
       </c>
@@ -513,10 +525,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle a été créée comme publication officielle de la société suisse de neurochirurgie et de l'association suisse des psychiatres en 1917 par Constantin von Monakov, rejoint ensuite par 
-Paul Dubois, R. Weber, B. Manzoni et H. W. Maier[2].
+Paul Dubois, R. Weber, B. Manzoni et H. W. Maier.
 </t>
         </is>
       </c>
